--- a/data/OUT分析报表.xlsx
+++ b/data/OUT分析报表.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21600" windowHeight="9765" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13668" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售类" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="技术类" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="综合类" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'销售类'!$A$1:$R$34</definedName>
+  </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -70,6 +72,52 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -84,21 +132,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +156,22 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,13 +186,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -136,6 +194,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -143,57 +202,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,14 +211,6 @@
       <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,13 +223,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,19 +301,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,157 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,22 +518,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,31 +582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -598,137 +600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,6 +813,12 @@
       <protection locked="1" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,43 +1187,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:A39"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="14.4"/>
   <cols>
     <col width="8.25" customWidth="1" style="3" min="1" max="1"/>
-    <col width="8.625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="21.5" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8.875" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.875" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.62962962962963" customWidth="1" style="3" min="2" max="2"/>
+    <col width="23.6666666666667" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.87962962962963" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7.87962962962963" customWidth="1" style="3" min="5" max="5"/>
     <col width="10.5" customWidth="1" style="3" min="6" max="6"/>
     <col width="11.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.125" customWidth="1" style="3" min="8" max="8"/>
-    <col width="8.875" customWidth="1" style="3" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="8" max="8"/>
+    <col width="8.87962962962963" customWidth="1" style="3" min="9" max="9"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="10" max="10"/>
     <col width="13.5" customWidth="1" style="3" min="11" max="12"/>
     <col width="11.25" customWidth="1" style="3" min="13" max="13"/>
-    <col width="12.625" customWidth="1" style="3" min="14" max="14"/>
-    <col width="13.625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="14" max="14"/>
+    <col width="13.6296296296296" customWidth="1" style="3" min="15" max="15"/>
     <col width="12.25" customWidth="1" style="3" min="16" max="16"/>
-    <col width="9.125" customWidth="1" style="3" min="17" max="17"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="17" max="17"/>
     <col width="13.25" customWidth="1" style="3" min="18" max="18"/>
     <col width="8.75" customWidth="1" style="3" min="19" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.1" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="65" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>2020年
-第13周</t>
+4月</t>
         </is>
       </c>
       <c r="B1" s="4" t="inlineStr">
@@ -1301,6 +1309,36 @@
       <c r="R1" s="12" t="inlineStr">
         <is>
           <t>无项目编号的“其他”类型外出次数</t>
+        </is>
+      </c>
+      <c r="S1" s="27" t="inlineStr">
+        <is>
+          <t>见用户次数</t>
+        </is>
+      </c>
+      <c r="T1" s="27" t="inlineStr">
+        <is>
+          <t>见合作伙伴次数</t>
+        </is>
+      </c>
+      <c r="U1" s="27" t="inlineStr">
+        <is>
+          <t>与用户商务非正式交流</t>
+        </is>
+      </c>
+      <c r="V1" s="27" t="inlineStr">
+        <is>
+          <t>与合作伙伴商务非正式交流</t>
+        </is>
+      </c>
+      <c r="W1" s="28" t="inlineStr">
+        <is>
+          <t>出差次数</t>
+        </is>
+      </c>
+      <c r="X1" s="28" t="inlineStr">
+        <is>
+          <t>出差天数</t>
         </is>
       </c>
     </row>
@@ -1329,29 +1367,43 @@
         </is>
       </c>
       <c r="F2" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" s="29" t="n"/>
+      <c r="N2" s="29" t="n"/>
+      <c r="O2" s="29" t="n"/>
+      <c r="P2" s="29" t="n"/>
+      <c r="Q2" s="29" t="n"/>
+      <c r="R2" s="29" t="n"/>
+      <c r="S2" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" s="27" t="n"/>
-      <c r="K2" s="27" t="n"/>
-      <c r="L2" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" s="27" t="n"/>
-      <c r="N2" s="27" t="n"/>
-      <c r="O2" s="27" t="n"/>
-      <c r="P2" s="27" t="n"/>
-      <c r="Q2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="27" t="n">
-        <v>1</v>
+      <c r="U2" s="11" t="n"/>
+      <c r="V2" s="11" t="n"/>
+      <c r="W2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="27.95" customFormat="1" customHeight="1" s="23">
@@ -1378,35 +1430,59 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="31" t="n"/>
+      <c r="H3" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="29" t="n"/>
-      <c r="H3" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="30" t="n"/>
-      <c r="L3" s="30" t="n">
+      <c r="Q3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="M3" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="30" t="n"/>
-      <c r="P3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="30" t="n"/>
-      <c r="R3" s="30" t="n"/>
+      <c r="T3" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A4" s="14" t="n">
@@ -1428,25 +1504,25 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="n"/>
-      <c r="H4" s="30" t="n"/>
-      <c r="I4" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="30" t="n"/>
-      <c r="K4" s="30" t="n"/>
-      <c r="L4" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" s="30" t="n"/>
-      <c r="N4" s="30" t="n"/>
-      <c r="O4" s="30" t="n"/>
-      <c r="P4" s="30" t="n"/>
-      <c r="Q4" s="30" t="n"/>
-      <c r="R4" s="30" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="31" t="n"/>
+      <c r="H4" s="32" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="32" t="n"/>
+      <c r="K4" s="32" t="n"/>
+      <c r="L4" s="32" t="n"/>
+      <c r="M4" s="32" t="n"/>
+      <c r="N4" s="32" t="n"/>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="32" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="32" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="11" t="n"/>
+      <c r="U4" s="11" t="n"/>
+      <c r="V4" s="11" t="n"/>
+      <c r="W4" s="11" t="n"/>
+      <c r="X4" s="11" t="n"/>
     </row>
     <row r="5" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A5" s="14" t="n">
@@ -1473,26 +1549,40 @@
         </is>
       </c>
       <c r="F5" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" s="30" t="n"/>
-      <c r="H5" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32" t="n"/>
+      <c r="H5" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="32" t="n"/>
+      <c r="K5" s="32" t="n"/>
+      <c r="L5" s="32" t="n">
+        <v>19</v>
+      </c>
+      <c r="M5" s="32" t="n"/>
+      <c r="N5" s="32" t="n"/>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="32" t="n"/>
+      <c r="Q5" s="32" t="n"/>
+      <c r="R5" s="32" t="n"/>
+      <c r="S5" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="J5" s="30" t="n"/>
-      <c r="K5" s="30" t="n"/>
-      <c r="L5" s="30" t="n">
-        <v>14</v>
-      </c>
-      <c r="M5" s="30" t="n"/>
-      <c r="N5" s="30" t="n"/>
-      <c r="O5" s="30" t="n"/>
-      <c r="P5" s="30" t="n"/>
-      <c r="Q5" s="30" t="n"/>
-      <c r="R5" s="30" t="n"/>
+      <c r="T5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" s="11" t="n"/>
+      <c r="V5" s="11" t="n"/>
+      <c r="W5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A6" s="14" t="n">
@@ -1519,26 +1609,40 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="29" t="n"/>
-      <c r="H6" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" s="30" t="n"/>
-      <c r="K6" s="30" t="n"/>
-      <c r="L6" s="30" t="n">
-        <v>13</v>
-      </c>
-      <c r="M6" s="30" t="n"/>
-      <c r="N6" s="30" t="n"/>
-      <c r="O6" s="30" t="n"/>
-      <c r="P6" s="30" t="n"/>
-      <c r="Q6" s="30" t="n"/>
-      <c r="R6" s="30" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="31" t="n"/>
+      <c r="H6" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" s="32" t="n"/>
+      <c r="K6" s="32" t="n"/>
+      <c r="L6" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" s="32" t="n"/>
+      <c r="N6" s="32" t="n"/>
+      <c r="O6" s="32" t="n"/>
+      <c r="P6" s="32" t="n"/>
+      <c r="Q6" s="32" t="n"/>
+      <c r="R6" s="32" t="n"/>
+      <c r="S6" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="U6" s="11" t="n"/>
+      <c r="V6" s="11" t="n"/>
+      <c r="W6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A7" s="14" t="n">
@@ -1561,28 +1665,46 @@
         </is>
       </c>
       <c r="F7" s="11" t="n"/>
-      <c r="G7" s="30" t="n"/>
-      <c r="H7" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="30" t="n">
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" s="32" t="n"/>
+      <c r="K7" s="32" t="n"/>
+      <c r="L7" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="32" t="n"/>
+      <c r="O7" s="32" t="n"/>
+      <c r="P7" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="30" t="n"/>
-      <c r="K7" s="30" t="n"/>
-      <c r="L7" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="30" t="n"/>
-      <c r="O7" s="30" t="n"/>
-      <c r="P7" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="30" t="n"/>
-      <c r="R7" s="30" t="n"/>
+      <c r="U7" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" s="11" t="n"/>
+      <c r="X7" s="11" t="n"/>
     </row>
     <row r="8" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A8" s="14" t="n">
@@ -1609,30 +1731,46 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="30" t="n"/>
-      <c r="H8" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="32" t="n"/>
+      <c r="K8" s="32" t="n"/>
+      <c r="L8" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32" t="n"/>
+      <c r="O8" s="32" t="n"/>
+      <c r="P8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="32" t="n"/>
+      <c r="S8" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="n"/>
-      <c r="L8" s="30" t="n">
-        <v>12</v>
-      </c>
-      <c r="M8" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="30" t="n"/>
-      <c r="O8" s="30" t="n"/>
-      <c r="P8" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="30" t="n"/>
-      <c r="R8" s="30" t="n"/>
+      <c r="U8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="11" t="n"/>
+      <c r="W8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A9" s="14" t="n">
@@ -1659,26 +1797,48 @@
         </is>
       </c>
       <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29" t="n"/>
-      <c r="H9" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" s="30" t="n"/>
-      <c r="K9" s="30" t="n"/>
-      <c r="L9" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="30" t="n"/>
-      <c r="N9" s="30" t="n"/>
-      <c r="O9" s="30" t="n"/>
-      <c r="P9" s="30" t="n"/>
-      <c r="Q9" s="30" t="n"/>
-      <c r="R9" s="30" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="31" t="n"/>
+      <c r="H9" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" s="32" t="n"/>
+      <c r="K9" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="M9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32" t="n"/>
+      <c r="O9" s="32" t="n"/>
+      <c r="P9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="32" t="n"/>
+      <c r="S9" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" s="11" t="n"/>
+      <c r="V9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" s="11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A10" s="14" t="n">
@@ -1705,34 +1865,42 @@
         </is>
       </c>
       <c r="F10" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="29" t="n"/>
-      <c r="H10" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="31" t="n"/>
+      <c r="H10" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="J10" s="30" t="n"/>
-      <c r="K10" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" s="30" t="n"/>
-      <c r="O10" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="30" t="n"/>
-      <c r="R10" s="30" t="n"/>
+      <c r="J10" s="32" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="32" t="n"/>
+      <c r="O10" s="32" t="n"/>
+      <c r="P10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="32" t="n"/>
+      <c r="R10" s="32" t="n"/>
+      <c r="S10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" s="11" t="n"/>
+      <c r="V10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="11" t="n"/>
+      <c r="X10" s="11" t="n"/>
     </row>
     <row r="11" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A11" s="14" t="n">
@@ -1758,25 +1926,39 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F11" s="11" t="n"/>
-      <c r="G11" s="29" t="n"/>
-      <c r="H11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="30" t="n"/>
-      <c r="K11" s="30" t="n"/>
-      <c r="L11" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="30" t="n"/>
-      <c r="N11" s="30" t="n"/>
-      <c r="O11" s="30" t="n"/>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="30" t="n"/>
-      <c r="R11" s="30" t="n"/>
+      <c r="F11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31" t="n"/>
+      <c r="H11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="32" t="n"/>
+      <c r="O11" s="32" t="n"/>
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="32" t="n"/>
+      <c r="S11" s="11" t="n"/>
+      <c r="T11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" s="11" t="n"/>
+      <c r="V11" s="11" t="n"/>
+      <c r="W11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A12" s="14" t="n">
@@ -1799,26 +1981,46 @@
         </is>
       </c>
       <c r="F12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="31" t="n"/>
+      <c r="H12" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="32" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="32" t="n"/>
+      <c r="P12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="32" t="n"/>
+      <c r="R12" s="32" t="n"/>
+      <c r="S12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="11" t="n"/>
+      <c r="W12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="29" t="n"/>
-      <c r="H12" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="30" t="n"/>
-      <c r="K12" s="30" t="n"/>
-      <c r="L12" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="30" t="n"/>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="30" t="n"/>
-      <c r="R12" s="30" t="n"/>
     </row>
     <row r="13" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A13" s="14" t="n">
@@ -1844,30 +2046,38 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G13" s="29" t="n"/>
-      <c r="H13" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="30" t="n"/>
-      <c r="K13" s="30" t="n"/>
-      <c r="L13" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="30" t="n"/>
-      <c r="P13" s="30" t="n"/>
-      <c r="Q13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="30" t="n">
-        <v>1</v>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="31" t="n"/>
+      <c r="H13" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="32" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="32" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="32" t="n"/>
+      <c r="P13" s="32" t="n"/>
+      <c r="Q13" s="32" t="n"/>
+      <c r="R13" s="32" t="n"/>
+      <c r="S13" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="11" t="n"/>
+      <c r="V13" s="11" t="n"/>
+      <c r="W13" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="27.95" customFormat="1" customHeight="1" s="23">
@@ -1895,26 +2105,48 @@
         </is>
       </c>
       <c r="F14" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="29" t="n"/>
-      <c r="H14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" s="30" t="n"/>
-      <c r="K14" s="30" t="n"/>
-      <c r="L14" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="M14" s="30" t="n"/>
-      <c r="N14" s="30" t="n"/>
-      <c r="O14" s="30" t="n"/>
-      <c r="P14" s="30" t="n"/>
-      <c r="Q14" s="30" t="n"/>
-      <c r="R14" s="30" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="31" t="n"/>
+      <c r="H14" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" s="33" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" s="32" t="n"/>
+      <c r="K14" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="32" t="n"/>
+      <c r="O14" s="32" t="n"/>
+      <c r="P14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="32" t="n"/>
+      <c r="R14" s="32" t="n"/>
+      <c r="S14" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11" t="n"/>
+      <c r="W14" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A15" s="14" t="n">
@@ -1940,27 +2172,49 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="29" t="n"/>
-      <c r="H15" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="30" t="n"/>
-      <c r="K15" s="30" t="n"/>
-      <c r="L15" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="30" t="n"/>
-      <c r="N15" s="30" t="n"/>
-      <c r="O15" s="30" t="n"/>
-      <c r="P15" s="30" t="n"/>
-      <c r="Q15" s="30" t="n"/>
-      <c r="R15" s="30" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="31" t="n"/>
+      <c r="H15" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="33" t="n">
+        <v>33</v>
+      </c>
+      <c r="J15" s="32" t="n"/>
+      <c r="K15" s="32" t="n"/>
+      <c r="L15" s="32" t="n">
+        <v>33</v>
+      </c>
+      <c r="M15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="32" t="n"/>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U15" s="11" t="n"/>
+      <c r="V15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" s="11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A16" s="14" t="n">
@@ -1989,24 +2243,42 @@
       <c r="F16" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="29" t="n"/>
-      <c r="H16" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="31" t="n">
+      <c r="G16" s="31" t="n"/>
+      <c r="H16" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="33" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="30" t="n"/>
-      <c r="K16" s="30" t="n"/>
-      <c r="L16" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" s="30" t="n"/>
-      <c r="N16" s="30" t="n"/>
-      <c r="O16" s="30" t="n"/>
-      <c r="P16" s="30" t="n"/>
-      <c r="Q16" s="30" t="n"/>
-      <c r="R16" s="30" t="n"/>
+      <c r="K16" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" s="32" t="n"/>
+      <c r="N16" s="32" t="n"/>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
+      <c r="Q16" s="32" t="n"/>
+      <c r="R16" s="32" t="n"/>
+      <c r="S16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" s="11" t="n"/>
+      <c r="V16" s="11" t="n"/>
+      <c r="W16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" s="11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A17" s="14" t="n">
@@ -2032,23 +2304,47 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F17" s="11" t="n"/>
-      <c r="G17" s="29" t="n"/>
-      <c r="H17" s="30" t="n"/>
-      <c r="I17" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" s="30" t="n"/>
-      <c r="K17" s="30" t="n"/>
-      <c r="L17" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" s="30" t="n"/>
-      <c r="N17" s="30" t="n"/>
-      <c r="O17" s="30" t="n"/>
-      <c r="P17" s="30" t="n"/>
-      <c r="Q17" s="30" t="n"/>
-      <c r="R17" s="30" t="n"/>
+      <c r="F17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31" t="n"/>
+      <c r="H17" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" s="32" t="n"/>
+      <c r="K17" s="32" t="n"/>
+      <c r="L17" s="32" t="n">
+        <v>27</v>
+      </c>
+      <c r="M17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="32" t="n"/>
+      <c r="O17" s="32" t="n"/>
+      <c r="P17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="32" t="n"/>
+      <c r="R17" s="32" t="n"/>
+      <c r="S17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="T17" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" s="11" t="n"/>
+      <c r="V17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" s="11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A18" s="14" t="n">
@@ -2070,21 +2366,35 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F18" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="30" t="n"/>
-      <c r="H18" s="30" t="n"/>
-      <c r="I18" s="30" t="n"/>
-      <c r="J18" s="30" t="n"/>
-      <c r="K18" s="30" t="n"/>
-      <c r="L18" s="30" t="n"/>
-      <c r="M18" s="30" t="n"/>
-      <c r="N18" s="30" t="n"/>
-      <c r="O18" s="30" t="n"/>
-      <c r="P18" s="30" t="n"/>
-      <c r="Q18" s="30" t="n"/>
-      <c r="R18" s="30" t="n"/>
+      <c r="F18" s="11" t="n"/>
+      <c r="G18" s="32" t="n"/>
+      <c r="H18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="32" t="n"/>
+      <c r="K18" s="32" t="n"/>
+      <c r="L18" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="32" t="n"/>
+      <c r="N18" s="32" t="n"/>
+      <c r="O18" s="32" t="n"/>
+      <c r="P18" s="32" t="n"/>
+      <c r="Q18" s="32" t="n"/>
+      <c r="R18" s="32" t="n"/>
+      <c r="S18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" s="11" t="n"/>
+      <c r="V18" s="11" t="n"/>
+      <c r="W18" s="11" t="n"/>
+      <c r="X18" s="11" t="n"/>
     </row>
     <row r="19" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A19" s="14" t="n">
@@ -2111,20 +2421,40 @@
         </is>
       </c>
       <c r="F19" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="31" t="n"/>
+      <c r="H19" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="29" t="n"/>
-      <c r="H19" s="30" t="n"/>
-      <c r="I19" s="31" t="n"/>
-      <c r="J19" s="30" t="n"/>
-      <c r="K19" s="30" t="n"/>
-      <c r="L19" s="30" t="n"/>
-      <c r="M19" s="30" t="n"/>
-      <c r="N19" s="30" t="n"/>
-      <c r="O19" s="30" t="n"/>
-      <c r="P19" s="30" t="n"/>
-      <c r="Q19" s="30" t="n"/>
-      <c r="R19" s="30" t="n"/>
+      <c r="J19" s="32" t="n"/>
+      <c r="K19" s="32" t="n"/>
+      <c r="L19" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" s="32" t="n"/>
+      <c r="N19" s="32" t="n"/>
+      <c r="O19" s="32" t="n"/>
+      <c r="P19" s="32" t="n"/>
+      <c r="Q19" s="32" t="n"/>
+      <c r="R19" s="32" t="n"/>
+      <c r="S19" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" s="11" t="n"/>
+      <c r="V19" s="11" t="n"/>
+      <c r="W19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A20" s="14" t="n">
@@ -2147,30 +2477,46 @@
         </is>
       </c>
       <c r="F20" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" s="29" t="n"/>
-      <c r="H20" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="30" t="n"/>
-      <c r="K20" s="30" t="n"/>
-      <c r="L20" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="30" t="n"/>
-      <c r="O20" s="30" t="n"/>
-      <c r="P20" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="30" t="n"/>
-      <c r="R20" s="30" t="n"/>
+      <c r="G20" s="31" t="n"/>
+      <c r="H20" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="32" t="n"/>
+      <c r="K20" s="32" t="n"/>
+      <c r="L20" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="32" t="n"/>
+      <c r="O20" s="32" t="n"/>
+      <c r="P20" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="32" t="n"/>
+      <c r="R20" s="32" t="n"/>
+      <c r="S20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" s="11" t="n"/>
+      <c r="V20" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A21" s="14" t="n">
@@ -2197,24 +2543,40 @@
         </is>
       </c>
       <c r="F21" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="24" t="n"/>
-      <c r="H21" s="30" t="n"/>
-      <c r="I21" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" s="30" t="n"/>
-      <c r="K21" s="30" t="n"/>
-      <c r="L21" s="30" t="n">
-        <v>18</v>
-      </c>
-      <c r="M21" s="30" t="n"/>
-      <c r="N21" s="30" t="n"/>
-      <c r="O21" s="30" t="n"/>
-      <c r="P21" s="30" t="n"/>
-      <c r="Q21" s="30" t="n"/>
-      <c r="R21" s="30" t="n"/>
+      <c r="H21" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" s="33" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" s="32" t="n"/>
+      <c r="K21" s="32" t="n"/>
+      <c r="L21" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="M21" s="32" t="n"/>
+      <c r="N21" s="32" t="n"/>
+      <c r="O21" s="32" t="n"/>
+      <c r="P21" s="32" t="n"/>
+      <c r="Q21" s="32" t="n"/>
+      <c r="R21" s="32" t="n"/>
+      <c r="S21" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U21" s="11" t="n"/>
+      <c r="V21" s="11" t="n"/>
+      <c r="W21" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" s="11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A22" s="14" t="n">
@@ -2243,28 +2605,44 @@
       <c r="F22" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="30" t="n"/>
-      <c r="H22" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" s="30" t="n"/>
-      <c r="K22" s="30" t="n"/>
-      <c r="L22" s="30" t="n">
-        <v>12</v>
-      </c>
-      <c r="M22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="30" t="n"/>
-      <c r="O22" s="30" t="n"/>
-      <c r="P22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="30" t="n"/>
-      <c r="R22" s="30" t="n"/>
+      <c r="G22" s="32" t="n"/>
+      <c r="H22" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="33" t="n">
+        <v>41</v>
+      </c>
+      <c r="J22" s="32" t="n"/>
+      <c r="K22" s="32" t="n"/>
+      <c r="L22" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="M22" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="32" t="n"/>
+      <c r="O22" s="32" t="n"/>
+      <c r="P22" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="32" t="n"/>
+      <c r="R22" s="32" t="n"/>
+      <c r="S22" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="T22" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="U22" s="11" t="n"/>
+      <c r="V22" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A23" s="14" t="n">
@@ -2272,7 +2650,7 @@
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>李党松</t>
+          <t>邱恒志</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
@@ -2282,7 +2660,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>区域部</t>
+          <t>党政部</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
@@ -2290,31 +2668,39 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F23" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="29" t="n"/>
-      <c r="H23" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" s="30" t="n"/>
-      <c r="K23" s="30" t="n"/>
-      <c r="L23" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="30" t="n"/>
-      <c r="O23" s="30" t="n"/>
-      <c r="P23" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="30" t="n"/>
-      <c r="R23" s="30" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="31" t="n"/>
+      <c r="H23" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" s="32" t="n"/>
+      <c r="K23" s="32" t="n"/>
+      <c r="L23" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" s="32" t="n"/>
+      <c r="N23" s="32" t="n"/>
+      <c r="O23" s="32" t="n"/>
+      <c r="P23" s="32" t="n"/>
+      <c r="Q23" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="T23" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U23" s="11" t="n"/>
+      <c r="V23" s="11" t="n"/>
+      <c r="W23" s="11" t="n"/>
+      <c r="X23" s="11" t="n"/>
     </row>
     <row r="24" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A24" s="14" t="n">
@@ -2322,7 +2708,7 @@
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>邱恒志</t>
+          <t>邓超</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -2332,7 +2718,7 @@
       </c>
       <c r="D24" s="7" t="inlineStr">
         <is>
-          <t>党政部</t>
+          <t>区域部</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
@@ -2341,31 +2727,47 @@
         </is>
       </c>
       <c r="F24" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="29" t="n"/>
-      <c r="H24" s="30" t="n"/>
-      <c r="I24" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" s="30" t="n"/>
-      <c r="K24" s="30" t="n"/>
-      <c r="L24" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M24" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="30" t="n"/>
-      <c r="O24" s="30" t="n"/>
-      <c r="P24" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="30" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G24" s="32" t="n"/>
+      <c r="H24" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" s="32" t="n"/>
+      <c r="K24" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="32" t="n"/>
+      <c r="O24" s="32" t="n"/>
+      <c r="P24" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="32" t="n"/>
+      <c r="R24" s="32" t="n"/>
+      <c r="S24" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="T24" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" s="11" t="n"/>
+      <c r="V24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X24" s="11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="27.95" customFormat="1" customHeight="1" s="23">
@@ -2374,7 +2776,7 @@
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>邓超</t>
+          <t>张永进</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
@@ -2393,32 +2795,54 @@
         </is>
       </c>
       <c r="F25" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="31" t="n"/>
+      <c r="H25" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I25" s="33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="30" t="n"/>
-      <c r="H25" s="30" t="n">
+      <c r="L25" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="I25" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J25" s="30" t="n"/>
-      <c r="K25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="M25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="30" t="n"/>
-      <c r="O25" s="30" t="n"/>
-      <c r="P25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="30" t="n"/>
-      <c r="R25" s="30" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="32" t="n"/>
+      <c r="R25" s="32" t="n"/>
+      <c r="S25" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T25" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A26" s="14" t="n">
@@ -2426,17 +2850,18 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>张永进</t>
+          <t>闫应天</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>湖南办事处</t>
+          <t>区域管理中心</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>区域部</t>
+          <t>营销
+一部</t>
         </is>
       </c>
       <c r="E26" s="6" t="inlineStr">
@@ -2447,24 +2872,38 @@
       <c r="F26" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="29" t="n"/>
-      <c r="H26" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J26" s="30" t="n"/>
-      <c r="K26" s="30" t="n"/>
-      <c r="L26" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="M26" s="30" t="n"/>
-      <c r="N26" s="30" t="n"/>
-      <c r="O26" s="30" t="n"/>
-      <c r="P26" s="30" t="n"/>
-      <c r="Q26" s="30" t="n"/>
-      <c r="R26" s="30" t="n"/>
+      <c r="G26" s="31" t="n"/>
+      <c r="H26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="32" t="n"/>
+      <c r="K26" s="32" t="n"/>
+      <c r="L26" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" s="32" t="n"/>
+      <c r="N26" s="32" t="n"/>
+      <c r="O26" s="32" t="n"/>
+      <c r="P26" s="32" t="n"/>
+      <c r="Q26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" s="11" t="n"/>
+      <c r="V26" s="11" t="n"/>
+      <c r="W26" s="11" t="n"/>
+      <c r="X26" s="11" t="n"/>
     </row>
     <row r="27" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A27" s="14" t="n">
@@ -2472,20 +2911,15 @@
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>闫应天</t>
+          <t>龚朝辉</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>区域管理中心</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>营销
-一部</t>
-        </is>
-      </c>
+          <t>西安分公司</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n"/>
       <c r="E27" s="6" t="inlineStr">
         <is>
           <t>销售</t>
@@ -2494,26 +2928,40 @@
       <c r="F27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="29" t="n"/>
-      <c r="H27" s="30" t="n"/>
-      <c r="I27" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" s="30" t="n"/>
-      <c r="K27" s="30" t="n"/>
-      <c r="L27" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" s="30" t="n"/>
-      <c r="N27" s="30" t="n"/>
-      <c r="O27" s="30" t="n"/>
-      <c r="P27" s="30" t="n"/>
-      <c r="Q27" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="30" t="n">
-        <v>2</v>
-      </c>
+      <c r="G27" s="32" t="n"/>
+      <c r="H27" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" s="32" t="n"/>
+      <c r="K27" s="32" t="n"/>
+      <c r="L27" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="M27" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="32" t="n"/>
+      <c r="O27" s="32" t="n"/>
+      <c r="P27" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="32" t="n"/>
+      <c r="R27" s="32" t="n"/>
+      <c r="S27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" s="11" t="n"/>
+      <c r="V27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" s="11" t="n"/>
+      <c r="X27" s="11" t="n"/>
     </row>
     <row r="28" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A28" s="14" t="n">
@@ -2521,15 +2969,19 @@
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>刘洋</t>
+          <t>李海瑞</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>上海分公司/江苏办事处</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n"/>
+          <t>西安分公司</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>区域部</t>
+        </is>
+      </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
           <t>销售</t>
@@ -2538,28 +2990,46 @@
       <c r="F28" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="29" t="n"/>
-      <c r="H28" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" s="30" t="n"/>
-      <c r="K28" s="30" t="n"/>
-      <c r="L28" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" s="30" t="n"/>
-      <c r="O28" s="30" t="n"/>
-      <c r="P28" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="30" t="n"/>
-      <c r="R28" s="30" t="n"/>
+      <c r="G28" s="31" t="n"/>
+      <c r="H28" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" s="32" t="n"/>
+      <c r="K28" s="32" t="n"/>
+      <c r="L28" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="M28" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="32" t="n"/>
+      <c r="O28" s="32" t="n"/>
+      <c r="P28" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="32" t="n"/>
+      <c r="R28" s="32" t="n"/>
+      <c r="S28" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="U28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A29" s="14" t="n">
@@ -2567,37 +3037,43 @@
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>杨世伟</t>
+          <t>杨波</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>上海分公司/江苏办事处</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="n"/>
+          <t>西安分公司</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>区域部</t>
+        </is>
+      </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
       <c r="F29" s="11" t="n"/>
-      <c r="G29" s="29" t="n"/>
-      <c r="H29" s="30" t="n"/>
-      <c r="I29" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="30" t="n"/>
-      <c r="K29" s="30" t="n"/>
-      <c r="L29" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" s="30" t="n"/>
-      <c r="N29" s="30" t="n"/>
-      <c r="O29" s="30" t="n"/>
-      <c r="P29" s="30" t="n"/>
-      <c r="Q29" s="30" t="n"/>
-      <c r="R29" s="30" t="n"/>
+      <c r="G29" s="32" t="n"/>
+      <c r="H29" s="32" t="n"/>
+      <c r="I29" s="32" t="n"/>
+      <c r="J29" s="32" t="n"/>
+      <c r="K29" s="32" t="n"/>
+      <c r="L29" s="32" t="n"/>
+      <c r="M29" s="32" t="n"/>
+      <c r="N29" s="32" t="n"/>
+      <c r="O29" s="32" t="n"/>
+      <c r="P29" s="32" t="n"/>
+      <c r="Q29" s="32" t="n"/>
+      <c r="R29" s="32" t="n"/>
+      <c r="S29" s="11" t="n"/>
+      <c r="T29" s="11" t="n"/>
+      <c r="U29" s="11" t="n"/>
+      <c r="V29" s="11" t="n"/>
+      <c r="W29" s="11" t="n"/>
+      <c r="X29" s="11" t="n"/>
     </row>
     <row r="30" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A30" s="14" t="n">
@@ -2605,39 +3081,57 @@
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>俞馨</t>
+          <t>李世钢</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>上海分公司/江苏办事处</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="n"/>
+          <t>西安分公司</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>区域部</t>
+        </is>
+      </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="29" t="n"/>
-      <c r="H30" s="30" t="n"/>
-      <c r="I30" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32" t="n"/>
+      <c r="H30" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="J30" s="32" t="n"/>
+      <c r="K30" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="M30" s="32" t="n"/>
+      <c r="N30" s="32" t="n"/>
+      <c r="O30" s="32" t="n"/>
+      <c r="P30" s="32" t="n"/>
+      <c r="Q30" s="32" t="n"/>
+      <c r="R30" s="32" t="n"/>
+      <c r="S30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="J30" s="30" t="n"/>
-      <c r="K30" s="30" t="n"/>
-      <c r="L30" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M30" s="30" t="n"/>
-      <c r="N30" s="30" t="n"/>
-      <c r="O30" s="30" t="n"/>
-      <c r="P30" s="30" t="n"/>
-      <c r="Q30" s="30" t="n"/>
-      <c r="R30" s="30" t="n"/>
+      <c r="T30" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U30" s="11" t="n"/>
+      <c r="V30" s="11" t="n"/>
+      <c r="W30" s="11" t="n"/>
+      <c r="X30" s="11" t="n"/>
     </row>
     <row r="31" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A31" s="14" t="n">
@@ -2645,7 +3139,7 @@
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>龚朝辉</t>
+          <t>侯鹏飞</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
@@ -2653,31 +3147,51 @@
           <t>西安分公司</t>
         </is>
       </c>
-      <c r="D31" s="7" t="n"/>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>党政部</t>
+        </is>
+      </c>
       <c r="E31" s="6" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30" t="n"/>
-      <c r="H31" s="30" t="n"/>
-      <c r="I31" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="30" t="n"/>
-      <c r="K31" s="30" t="n"/>
-      <c r="L31" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="30" t="n"/>
-      <c r="N31" s="30" t="n"/>
-      <c r="O31" s="30" t="n"/>
-      <c r="P31" s="30" t="n"/>
-      <c r="Q31" s="30" t="n"/>
-      <c r="R31" s="30" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="31" t="n"/>
+      <c r="H31" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J31" s="32" t="n"/>
+      <c r="K31" s="32" t="n"/>
+      <c r="L31" s="32" t="n">
+        <v>21</v>
+      </c>
+      <c r="M31" s="32" t="n"/>
+      <c r="N31" s="32" t="n"/>
+      <c r="O31" s="32" t="n"/>
+      <c r="P31" s="32" t="n"/>
+      <c r="Q31" s="32" t="n"/>
+      <c r="R31" s="32" t="n"/>
+      <c r="S31" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T31" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U31" s="11" t="n"/>
+      <c r="V31" s="11" t="n"/>
+      <c r="W31" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" s="11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A32" s="14" t="n">
@@ -2685,45 +3199,61 @@
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>李海瑞</t>
+          <t>岳耀岭</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>西安分公司</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>区域部</t>
-        </is>
-      </c>
+          <t>西安分公司/新疆办事处</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="n"/>
       <c r="E32" s="6" t="inlineStr">
         <is>
           <t>销售</t>
         </is>
       </c>
       <c r="F32" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="29" t="n"/>
-      <c r="H32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="32" t="n"/>
+      <c r="H32" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="32" t="n"/>
+      <c r="K32" s="32" t="n"/>
+      <c r="L32" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="32" t="n"/>
+      <c r="O32" s="32" t="n"/>
+      <c r="P32" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="32" t="n"/>
+      <c r="R32" s="32" t="n"/>
+      <c r="S32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="11" t="n"/>
+      <c r="W32" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" s="30" t="n"/>
-      <c r="K32" s="30" t="n"/>
-      <c r="L32" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" s="30" t="n"/>
-      <c r="N32" s="30" t="n"/>
-      <c r="O32" s="30" t="n"/>
-      <c r="P32" s="30" t="n"/>
-      <c r="Q32" s="30" t="n"/>
-      <c r="R32" s="30" t="n"/>
     </row>
     <row r="33" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A33" s="14" t="n">
@@ -2731,12 +3261,12 @@
       </c>
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>杨波</t>
+          <t>方毅</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>西安分公司</t>
+          <t>西安分公司/新疆办事处</t>
         </is>
       </c>
       <c r="D33" s="7" t="inlineStr">
@@ -2752,28 +3282,38 @@
       <c r="F33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="30" t="n"/>
-      <c r="H33" s="30" t="n"/>
-      <c r="I33" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" s="30" t="n"/>
-      <c r="K33" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="30" t="n"/>
-      <c r="O33" s="30" t="n"/>
-      <c r="P33" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="30" t="n"/>
-      <c r="R33" s="30" t="n"/>
+      <c r="G33" s="32" t="n"/>
+      <c r="H33" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" s="31" t="n"/>
+      <c r="K33" s="32" t="n"/>
+      <c r="L33" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="M33" s="32" t="n"/>
+      <c r="N33" s="32" t="n"/>
+      <c r="O33" s="32" t="n"/>
+      <c r="P33" s="32" t="n"/>
+      <c r="Q33" s="32" t="n"/>
+      <c r="R33" s="32" t="n"/>
+      <c r="S33" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" s="11" t="n"/>
+      <c r="V33" s="11" t="n"/>
+      <c r="W33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" ht="27.95" customFormat="1" customHeight="1" s="23">
       <c r="A34" s="14" t="n">
@@ -2781,17 +3321,17 @@
       </c>
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t>李世钢</t>
+          <t>王博</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>西安分公司</t>
+          <t>西安分公司/新疆办事处</t>
         </is>
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>区域部</t>
+          <t>党政部</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
@@ -2799,259 +3339,58 @@
           <t>销售</t>
         </is>
       </c>
-      <c r="F34" s="11" t="n"/>
-      <c r="G34" s="30" t="n"/>
-      <c r="H34" s="30" t="n"/>
-      <c r="I34" s="30" t="n"/>
-      <c r="J34" s="30" t="n"/>
-      <c r="K34" s="30" t="n"/>
-      <c r="L34" s="30" t="n"/>
-      <c r="M34" s="30" t="n"/>
-      <c r="N34" s="30" t="n"/>
-      <c r="O34" s="30" t="n"/>
-      <c r="P34" s="30" t="n"/>
-      <c r="Q34" s="30" t="n"/>
-      <c r="R34" s="30" t="n"/>
-    </row>
-    <row r="35" ht="27.95" customFormat="1" customHeight="1" s="23">
-      <c r="A35" s="14" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>田峰</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>西安分公司</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>党政部</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="n">
+      <c r="F34" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="32" t="n"/>
+      <c r="H34" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="29" t="n"/>
-      <c r="H35" s="30" t="n"/>
-      <c r="I35" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" s="30" t="n"/>
-      <c r="K35" s="30" t="n"/>
-      <c r="L35" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M35" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" s="30" t="n"/>
-      <c r="O35" s="30" t="n"/>
-      <c r="P35" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="30" t="n"/>
-      <c r="R35" s="30" t="n"/>
-    </row>
-    <row r="36" ht="27.95" customFormat="1" customHeight="1" s="23">
-      <c r="A36" s="14" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="inlineStr">
-        <is>
-          <t>侯鹏飞</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>西安分公司</t>
-        </is>
-      </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>党政部</t>
-        </is>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="29" t="n"/>
-      <c r="H36" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="31" t="n"/>
-      <c r="J36" s="30" t="n"/>
-      <c r="K36" s="30" t="n"/>
-      <c r="L36" s="30" t="n"/>
-      <c r="M36" s="30" t="n"/>
-      <c r="N36" s="30" t="n"/>
-      <c r="O36" s="30" t="n"/>
-      <c r="P36" s="30" t="n"/>
-      <c r="Q36" s="30" t="n"/>
-      <c r="R36" s="30" t="n"/>
-    </row>
-    <row r="37" ht="27.95" customFormat="1" customHeight="1" s="23">
-      <c r="A37" s="14" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="inlineStr">
-        <is>
-          <t>岳耀岭</t>
-        </is>
-      </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>西安分公司/新疆办事处</t>
-        </is>
-      </c>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" s="30" t="n"/>
-      <c r="H37" s="30" t="n"/>
-      <c r="I37" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="30" t="n"/>
-      <c r="K37" s="30" t="n"/>
-      <c r="L37" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" s="30" t="n"/>
-      <c r="N37" s="30" t="n"/>
-      <c r="O37" s="30" t="n"/>
-      <c r="P37" s="30" t="n"/>
-      <c r="Q37" s="30" t="n"/>
-      <c r="R37" s="30" t="n"/>
-    </row>
-    <row r="38" ht="27.95" customFormat="1" customHeight="1" s="23">
-      <c r="A38" s="14" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="inlineStr">
-        <is>
-          <t>方毅</t>
-        </is>
-      </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>西安分公司/新疆办事处</t>
-        </is>
-      </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>区域部</t>
-        </is>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G38" s="30" t="n"/>
-      <c r="H38" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11" t="n">
+      <c r="I34" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="J34" s="32" t="n"/>
+      <c r="K34" s="32" t="n"/>
+      <c r="L34" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="32" t="n"/>
+      <c r="O34" s="32" t="n"/>
+      <c r="P34" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="32" t="n"/>
+      <c r="R34" s="32" t="n"/>
+      <c r="S34" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="29" t="n"/>
-      <c r="K38" s="30" t="n"/>
-      <c r="L38" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M38" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="30" t="n"/>
-      <c r="O38" s="30" t="n"/>
-      <c r="P38" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="30" t="n"/>
-      <c r="R38" s="30" t="n"/>
-    </row>
-    <row r="39" ht="27.95" customFormat="1" customHeight="1" s="23">
-      <c r="A39" s="14" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>王博</t>
-        </is>
-      </c>
-      <c r="C39" s="7" t="inlineStr">
-        <is>
-          <t>西安分公司/新疆办事处</t>
-        </is>
-      </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t>党政部</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="G39" s="30" t="n"/>
-      <c r="H39" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" s="30" t="n"/>
-      <c r="K39" s="30" t="n"/>
-      <c r="L39" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M39" s="30" t="n"/>
-      <c r="N39" s="30" t="n"/>
-      <c r="O39" s="30" t="n"/>
-      <c r="P39" s="30" t="n"/>
-      <c r="Q39" s="30" t="n"/>
-      <c r="R39" s="30" t="n"/>
-    </row>
-    <row r="40">
-      <c r="G40" s="25" t="n"/>
-      <c r="I40" s="26" t="n"/>
-    </row>
-    <row r="41">
-      <c r="G41" s="25" t="n"/>
-      <c r="I41" s="26" t="n"/>
-    </row>
-    <row r="42">
-      <c r="G42" s="25" t="n"/>
-      <c r="I42" s="26" t="n"/>
+      <c r="T34" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" s="11" t="n"/>
+      <c r="V34" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" s="11" t="n"/>
+      <c r="X34" s="11" t="n"/>
+    </row>
+    <row r="35">
+      <c r="G35" s="25" t="n"/>
+      <c r="I35" s="26" t="n"/>
+    </row>
+    <row r="36">
+      <c r="G36" s="25" t="n"/>
+      <c r="I36" s="26" t="n"/>
+    </row>
+    <row r="37">
+      <c r="G37" s="25" t="n"/>
+      <c r="I37" s="26" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -3066,55 +3405,55 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:AG22"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="14.4"/>
   <cols>
     <col width="8" customWidth="1" style="3" min="1" max="1"/>
-    <col width="8.625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.62962962962963" customWidth="1" style="3" min="2" max="2"/>
     <col width="28.25" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8.875" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.875" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.87962962962963" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7.87962962962963" customWidth="1" style="3" min="5" max="5"/>
     <col width="10.5" customWidth="1" style="3" min="6" max="6"/>
     <col width="11.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.125" customWidth="1" style="3" min="8" max="8"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="8" max="8"/>
     <col width="6.5" customWidth="1" style="3" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="10" max="10"/>
     <col width="13.5" customWidth="1" style="3" min="11" max="11"/>
     <col width="11.5" customWidth="1" style="3" min="12" max="12"/>
     <col width="11.25" customWidth="1" style="3" min="13" max="13"/>
-    <col width="12.625" customWidth="1" style="3" min="14" max="14"/>
-    <col width="13.625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="14" max="14"/>
+    <col width="13.6296296296296" customWidth="1" style="3" min="15" max="15"/>
     <col width="12.25" customWidth="1" style="3" min="16" max="16"/>
-    <col width="7.875" customWidth="1" style="3" min="17" max="17"/>
-    <col width="10.625" customWidth="1" style="3" min="18" max="18"/>
-    <col width="12.125" customWidth="1" style="3" min="19" max="19"/>
-    <col width="10.125" customWidth="1" style="3" min="20" max="20"/>
+    <col width="7.87962962962963" customWidth="1" style="3" min="17" max="17"/>
+    <col width="10.6296296296296" customWidth="1" style="3" min="18" max="18"/>
+    <col width="12.1296296296296" customWidth="1" style="3" min="19" max="19"/>
+    <col width="10.1296296296296" customWidth="1" style="3" min="20" max="20"/>
     <col width="7.5" customWidth="1" style="3" min="21" max="21"/>
-    <col width="12.625" customWidth="1" style="3" min="22" max="22"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="22" max="22"/>
     <col width="13.5" customWidth="1" style="3" min="23" max="23"/>
     <col width="12.25" customWidth="1" style="3" min="24" max="24"/>
-    <col width="5.125" customWidth="1" style="3" min="25" max="25"/>
+    <col width="5.12962962962963" customWidth="1" style="3" min="25" max="25"/>
     <col width="9.75" customWidth="1" style="3" min="26" max="26"/>
-    <col width="13.125" customWidth="1" style="3" min="27" max="27"/>
+    <col width="13.1296296296296" customWidth="1" style="3" min="27" max="27"/>
     <col width="11.5" customWidth="1" style="3" min="28" max="28"/>
     <col width="7.25" customWidth="1" style="3" min="29" max="30"/>
     <col width="5.5" customWidth="1" style="3" min="31" max="31"/>
-    <col width="9.125" customWidth="1" style="3" min="32" max="32"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="32" max="32"/>
     <col width="13.25" customWidth="1" style="3" min="33" max="33"/>
     <col width="8.75" customWidth="1" style="3" min="34" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.1" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="65" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>2020年
-第13周</t>
+4月</t>
         </is>
       </c>
       <c r="B1" s="4" t="inlineStr">
@@ -3306,17 +3645,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="n"/>
-      <c r="H2" s="27" t="n"/>
-      <c r="I2" s="28" t="n"/>
-      <c r="J2" s="27" t="n"/>
-      <c r="K2" s="27" t="n"/>
-      <c r="L2" s="27" t="n"/>
-      <c r="M2" s="27" t="n"/>
-      <c r="N2" s="27" t="n"/>
-      <c r="O2" s="27" t="n"/>
-      <c r="P2" s="27" t="n"/>
-      <c r="Q2" s="27" t="n"/>
-      <c r="R2" s="27" t="n"/>
+      <c r="H2" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="29" t="n"/>
+      <c r="K2" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="29" t="n"/>
+      <c r="N2" s="29" t="n"/>
+      <c r="O2" s="29" t="n"/>
+      <c r="P2" s="29" t="n"/>
+      <c r="Q2" s="29" t="n"/>
+      <c r="R2" s="29" t="n"/>
       <c r="S2" s="17" t="n"/>
       <c r="T2" s="17" t="n"/>
       <c r="U2" s="17" t="n"/>
@@ -3327,7 +3674,9 @@
       <c r="Z2" s="17" t="n"/>
       <c r="AA2" s="17" t="n"/>
       <c r="AB2" s="17" t="n"/>
-      <c r="AC2" s="17" t="n"/>
+      <c r="AC2" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="AD2" s="17" t="n"/>
       <c r="AE2" s="17" t="n"/>
       <c r="AF2" s="17" t="n"/>
@@ -3357,23 +3706,29 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29" t="n"/>
-      <c r="H3" s="30" t="n"/>
-      <c r="I3" s="31" t="n"/>
-      <c r="J3" s="30" t="n"/>
-      <c r="K3" s="30" t="n"/>
-      <c r="L3" s="30" t="n"/>
-      <c r="M3" s="30" t="n"/>
-      <c r="N3" s="30" t="n"/>
-      <c r="O3" s="30" t="n"/>
-      <c r="P3" s="30" t="n"/>
-      <c r="Q3" s="30" t="n"/>
-      <c r="R3" s="30" t="n"/>
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="31" t="n"/>
+      <c r="H3" s="32" t="n"/>
+      <c r="I3" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32" t="n"/>
+      <c r="K3" s="32" t="n"/>
+      <c r="L3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="32" t="n"/>
+      <c r="N3" s="32" t="n"/>
+      <c r="O3" s="32" t="n"/>
+      <c r="P3" s="32" t="n"/>
+      <c r="Q3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="32" t="n"/>
       <c r="S3" s="11" t="n"/>
-      <c r="T3" s="11" t="n"/>
+      <c r="T3" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="U3" s="11" t="n"/>
       <c r="V3" s="11" t="n"/>
       <c r="W3" s="11" t="n"/>
@@ -3412,27 +3767,23 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F4" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" s="29" t="n"/>
-      <c r="H4" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="30" t="n"/>
-      <c r="K4" s="30" t="n"/>
-      <c r="L4" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" s="30" t="n"/>
-      <c r="N4" s="30" t="n"/>
-      <c r="O4" s="30" t="n"/>
-      <c r="P4" s="30" t="n"/>
-      <c r="Q4" s="30" t="n"/>
-      <c r="R4" s="30" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="31" t="n"/>
+      <c r="H4" s="32" t="n"/>
+      <c r="I4" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="32" t="n"/>
+      <c r="K4" s="32" t="n"/>
+      <c r="L4" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" s="32" t="n"/>
+      <c r="N4" s="32" t="n"/>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="32" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="32" t="n"/>
       <c r="S4" s="11" t="n"/>
       <c r="T4" s="11" t="n"/>
       <c r="U4" s="11" t="n"/>
@@ -3444,12 +3795,18 @@
       <c r="AA4" s="11" t="n"/>
       <c r="AB4" s="11" t="n"/>
       <c r="AC4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="AD4" s="11" t="n"/>
       <c r="AE4" s="11" t="n"/>
-      <c r="AF4" s="11" t="n"/>
-      <c r="AG4" s="11" t="n"/>
+      <c r="AF4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A5" s="14" t="n">
@@ -3475,31 +3832,27 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="29" t="n"/>
-      <c r="H5" s="30" t="n"/>
-      <c r="I5" s="31" t="n">
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="31" t="n"/>
+      <c r="H5" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="30" t="n"/>
-      <c r="K5" s="30" t="n"/>
-      <c r="L5" s="30" t="n">
+      <c r="I5" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="30" t="n"/>
-      <c r="N5" s="30" t="n"/>
-      <c r="O5" s="30" t="n"/>
-      <c r="P5" s="30" t="n"/>
-      <c r="Q5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="30" t="n"/>
+      <c r="J5" s="32" t="n"/>
+      <c r="K5" s="32" t="n"/>
+      <c r="L5" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="32" t="n"/>
+      <c r="N5" s="32" t="n"/>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="32" t="n"/>
+      <c r="Q5" s="32" t="n"/>
+      <c r="R5" s="32" t="n"/>
       <c r="S5" s="11" t="n"/>
-      <c r="T5" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T5" s="11" t="n"/>
       <c r="U5" s="11" t="n"/>
       <c r="V5" s="11" t="n"/>
       <c r="W5" s="11" t="n"/>
@@ -3508,11 +3861,9 @@
       <c r="Z5" s="11" t="n"/>
       <c r="AA5" s="11" t="n"/>
       <c r="AB5" s="11" t="n"/>
-      <c r="AC5" s="11" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC5" s="11" t="n"/>
       <c r="AD5" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE5" s="11" t="n"/>
       <c r="AF5" s="11" t="n"/>
@@ -3543,30 +3894,44 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30" t="n"/>
-      <c r="H6" s="30" t="n"/>
-      <c r="I6" s="31" t="n"/>
-      <c r="J6" s="30" t="n"/>
-      <c r="K6" s="30" t="n"/>
-      <c r="L6" s="30" t="n"/>
-      <c r="M6" s="30" t="n"/>
-      <c r="N6" s="30" t="n"/>
-      <c r="O6" s="30" t="n"/>
-      <c r="P6" s="30" t="n"/>
-      <c r="Q6" s="30" t="n"/>
-      <c r="R6" s="30" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="32" t="n"/>
+      <c r="H6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="32" t="n"/>
+      <c r="K6" s="32" t="n"/>
+      <c r="L6" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="32" t="n"/>
+      <c r="N6" s="32" t="n"/>
+      <c r="O6" s="32" t="n"/>
+      <c r="P6" s="32" t="n"/>
+      <c r="Q6" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="32" t="n"/>
       <c r="S6" s="11" t="n"/>
-      <c r="T6" s="11" t="n"/>
+      <c r="T6" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="U6" s="11" t="n"/>
       <c r="V6" s="11" t="n"/>
       <c r="W6" s="11" t="n"/>
       <c r="X6" s="11" t="n"/>
-      <c r="Y6" s="11" t="n"/>
+      <c r="Y6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="Z6" s="11" t="n"/>
       <c r="AA6" s="11" t="n"/>
-      <c r="AB6" s="11" t="n"/>
+      <c r="AB6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AC6" s="11" t="n"/>
       <c r="AD6" s="11" t="n"/>
       <c r="AE6" s="11" t="n"/>
@@ -3597,27 +3962,23 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F7" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="32" t="n"/>
-      <c r="H7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" s="32" t="n"/>
-      <c r="K7" s="32" t="n"/>
-      <c r="L7" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="M7" s="32" t="n"/>
-      <c r="N7" s="32" t="n"/>
-      <c r="O7" s="32" t="n"/>
-      <c r="P7" s="32" t="n"/>
-      <c r="Q7" s="30" t="n"/>
-      <c r="R7" s="30" t="n"/>
+      <c r="F7" s="19" t="n"/>
+      <c r="G7" s="34" t="n"/>
+      <c r="H7" s="34" t="n"/>
+      <c r="I7" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="34" t="n"/>
+      <c r="K7" s="34" t="n"/>
+      <c r="L7" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="34" t="n"/>
+      <c r="N7" s="34" t="n"/>
+      <c r="O7" s="34" t="n"/>
+      <c r="P7" s="34" t="n"/>
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="32" t="n"/>
       <c r="S7" s="11" t="n"/>
       <c r="T7" s="11" t="n"/>
       <c r="U7" s="11" t="n"/>
@@ -3630,7 +3991,7 @@
       <c r="AB7" s="11" t="n"/>
       <c r="AC7" s="11" t="n"/>
       <c r="AD7" s="11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="11" t="n"/>
       <c r="AF7" s="11" t="n"/>
@@ -3660,31 +4021,27 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="29" t="n"/>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="31" t="n">
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="31" t="n"/>
+      <c r="H8" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="n"/>
-      <c r="L8" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="30" t="n"/>
-      <c r="N8" s="30" t="n"/>
-      <c r="O8" s="30" t="n"/>
-      <c r="P8" s="30" t="n"/>
-      <c r="Q8" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="30" t="n"/>
+      <c r="I8" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="32" t="n"/>
+      <c r="K8" s="32" t="n"/>
+      <c r="L8" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="32" t="n"/>
+      <c r="N8" s="32" t="n"/>
+      <c r="O8" s="32" t="n"/>
+      <c r="P8" s="32" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="32" t="n"/>
       <c r="S8" s="11" t="n"/>
-      <c r="T8" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8" s="11" t="n"/>
       <c r="U8" s="11" t="n"/>
       <c r="V8" s="11" t="n"/>
       <c r="W8" s="11" t="n"/>
@@ -3693,9 +4050,11 @@
       <c r="Z8" s="11" t="n"/>
       <c r="AA8" s="11" t="n"/>
       <c r="AB8" s="11" t="n"/>
-      <c r="AC8" s="11" t="n"/>
+      <c r="AC8" s="11" t="n">
+        <v>7</v>
+      </c>
       <c r="AD8" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="11" t="n"/>
       <c r="AF8" s="11" t="n"/>
@@ -3725,27 +4084,25 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29" t="n"/>
-      <c r="H9" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" s="30" t="n"/>
-      <c r="K9" s="30" t="n"/>
-      <c r="L9" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="30" t="n"/>
-      <c r="N9" s="30" t="n"/>
-      <c r="O9" s="30" t="n"/>
-      <c r="P9" s="30" t="n"/>
-      <c r="Q9" s="30" t="n"/>
-      <c r="R9" s="30" t="n"/>
+      <c r="F9" s="11" t="n"/>
+      <c r="G9" s="31" t="n"/>
+      <c r="H9" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" s="32" t="n"/>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="32" t="n"/>
+      <c r="N9" s="32" t="n"/>
+      <c r="O9" s="32" t="n"/>
+      <c r="P9" s="32" t="n"/>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="32" t="n"/>
       <c r="S9" s="11" t="n"/>
       <c r="T9" s="11" t="n"/>
       <c r="U9" s="11" t="n"/>
@@ -3757,10 +4114,10 @@
       <c r="AA9" s="11" t="n"/>
       <c r="AB9" s="11" t="n"/>
       <c r="AC9" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD9" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE9" s="11" t="n"/>
       <c r="AF9" s="11" t="n"/>
@@ -3790,30 +4147,30 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29" t="n"/>
-      <c r="H10" s="30" t="n"/>
-      <c r="I10" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="30" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="30" t="n"/>
-      <c r="O10" s="30" t="n"/>
-      <c r="P10" s="30" t="n"/>
-      <c r="Q10" s="30" t="n">
+      <c r="F10" s="11" t="n"/>
+      <c r="G10" s="31" t="n"/>
+      <c r="H10" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="30" t="n"/>
+      <c r="I10" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="32" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" s="32" t="n"/>
+      <c r="N10" s="32" t="n"/>
+      <c r="O10" s="32" t="n"/>
+      <c r="P10" s="32" t="n"/>
+      <c r="Q10" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="32" t="n"/>
       <c r="S10" s="11" t="n"/>
       <c r="T10" s="11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U10" s="11" t="n"/>
       <c r="V10" s="11" t="n"/>
@@ -3854,20 +4211,26 @@
         </is>
       </c>
       <c r="F11" s="11" t="n"/>
-      <c r="G11" s="29" t="n"/>
-      <c r="H11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="31" t="n"/>
-      <c r="J11" s="30" t="n"/>
-      <c r="K11" s="30" t="n"/>
-      <c r="L11" s="30" t="n"/>
-      <c r="M11" s="30" t="n"/>
-      <c r="N11" s="30" t="n"/>
-      <c r="O11" s="30" t="n"/>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="30" t="n"/>
-      <c r="R11" s="30" t="n"/>
+      <c r="G11" s="31" t="n"/>
+      <c r="H11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="32" t="n"/>
+      <c r="O11" s="32" t="n"/>
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="32" t="n"/>
       <c r="S11" s="11" t="n"/>
       <c r="T11" s="11" t="n"/>
       <c r="U11" s="11" t="n"/>
@@ -3879,7 +4242,9 @@
       <c r="AA11" s="11" t="n"/>
       <c r="AB11" s="11" t="n"/>
       <c r="AC11" s="11" t="n"/>
-      <c r="AD11" s="11" t="n"/>
+      <c r="AD11" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="AE11" s="11" t="n"/>
       <c r="AF11" s="11" t="n"/>
       <c r="AG11" s="11" t="n"/>
@@ -3908,32 +4273,32 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="29" t="n"/>
-      <c r="H12" s="30" t="n"/>
-      <c r="I12" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="30" t="n"/>
-      <c r="K12" s="30" t="n"/>
-      <c r="L12" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="30" t="n"/>
-      <c r="P12" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="30" t="n"/>
+      <c r="F12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31" t="n"/>
+      <c r="H12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="32" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="32" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="32" t="n"/>
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" s="32" t="n"/>
       <c r="S12" s="11" t="n"/>
       <c r="T12" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12" s="11" t="n"/>
       <c r="V12" s="11" t="n"/>
@@ -3974,28 +4339,26 @@
         </is>
       </c>
       <c r="F13" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" s="29" t="n"/>
-      <c r="H13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31" t="n"/>
+      <c r="H13" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" s="30" t="n"/>
-      <c r="K13" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="30" t="n"/>
-      <c r="P13" s="30" t="n"/>
-      <c r="Q13" s="30" t="n"/>
-      <c r="R13" s="30" t="n"/>
+      <c r="I13" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" s="32" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" s="32" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="32" t="n"/>
+      <c r="P13" s="32" t="n"/>
+      <c r="Q13" s="32" t="n"/>
+      <c r="R13" s="32" t="n"/>
       <c r="S13" s="11" t="n"/>
       <c r="T13" s="11" t="n"/>
       <c r="U13" s="11" t="n"/>
@@ -4007,10 +4370,14 @@
       <c r="AA13" s="11" t="n"/>
       <c r="AB13" s="11" t="n"/>
       <c r="AC13" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" s="11" t="n"/>
-      <c r="AE13" s="11" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="AF13" s="11" t="n"/>
       <c r="AG13" s="11" t="n"/>
     </row>
@@ -4039,31 +4406,29 @@
         </is>
       </c>
       <c r="F14" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="29" t="n"/>
-      <c r="H14" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" s="30" t="n"/>
-      <c r="K14" s="30" t="n"/>
-      <c r="L14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" s="30" t="n"/>
-      <c r="N14" s="30" t="n"/>
-      <c r="O14" s="30" t="n"/>
-      <c r="P14" s="30" t="n"/>
-      <c r="Q14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" s="30" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="31" t="n"/>
+      <c r="H14" s="32" t="n"/>
+      <c r="I14" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" s="32" t="n"/>
+      <c r="K14" s="32" t="n"/>
+      <c r="L14" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" s="32" t="n"/>
+      <c r="N14" s="32" t="n"/>
+      <c r="O14" s="32" t="n"/>
+      <c r="P14" s="32" t="n"/>
+      <c r="Q14" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" s="32" t="n"/>
       <c r="S14" s="11" t="n"/>
       <c r="T14" s="11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U14" s="11" t="n"/>
       <c r="V14" s="11" t="n"/>
@@ -4103,21 +4468,19 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" s="30" t="n"/>
-      <c r="H15" s="30" t="n"/>
-      <c r="I15" s="31" t="n"/>
-      <c r="J15" s="30" t="n"/>
-      <c r="K15" s="30" t="n"/>
-      <c r="L15" s="30" t="n"/>
-      <c r="M15" s="30" t="n"/>
-      <c r="N15" s="30" t="n"/>
-      <c r="O15" s="30" t="n"/>
-      <c r="P15" s="30" t="n"/>
-      <c r="Q15" s="30" t="n"/>
-      <c r="R15" s="30" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="32" t="n"/>
+      <c r="H15" s="32" t="n"/>
+      <c r="I15" s="33" t="n"/>
+      <c r="J15" s="32" t="n"/>
+      <c r="K15" s="32" t="n"/>
+      <c r="L15" s="32" t="n"/>
+      <c r="M15" s="32" t="n"/>
+      <c r="N15" s="32" t="n"/>
+      <c r="O15" s="32" t="n"/>
+      <c r="P15" s="32" t="n"/>
+      <c r="Q15" s="32" t="n"/>
+      <c r="R15" s="32" t="n"/>
       <c r="S15" s="11" t="n"/>
       <c r="T15" s="11" t="n"/>
       <c r="U15" s="11" t="n"/>
@@ -4159,24 +4522,30 @@
         </is>
       </c>
       <c r="F16" s="11" t="n"/>
-      <c r="G16" s="30" t="n"/>
-      <c r="H16" s="30" t="n"/>
-      <c r="I16" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="30" t="n"/>
-      <c r="K16" s="30" t="n"/>
-      <c r="L16" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="30" t="n"/>
-      <c r="N16" s="30" t="n"/>
-      <c r="O16" s="30" t="n"/>
-      <c r="P16" s="30" t="n"/>
-      <c r="Q16" s="30" t="n"/>
-      <c r="R16" s="30" t="n"/>
+      <c r="G16" s="32" t="n"/>
+      <c r="H16" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="32" t="n"/>
+      <c r="K16" s="32" t="n"/>
+      <c r="L16" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="32" t="n"/>
+      <c r="N16" s="32" t="n"/>
+      <c r="O16" s="32" t="n"/>
+      <c r="P16" s="32" t="n"/>
+      <c r="Q16" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="32" t="n"/>
       <c r="S16" s="11" t="n"/>
-      <c r="T16" s="11" t="n"/>
+      <c r="T16" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="U16" s="11" t="n"/>
       <c r="V16" s="11" t="n"/>
       <c r="W16" s="11" t="n"/>
@@ -4218,22 +4587,20 @@
         </is>
       </c>
       <c r="F17" s="11" t="n"/>
-      <c r="G17" s="29" t="n"/>
-      <c r="H17" s="30" t="n"/>
-      <c r="I17" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="30" t="n"/>
-      <c r="K17" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="30" t="n"/>
-      <c r="M17" s="30" t="n"/>
-      <c r="N17" s="30" t="n"/>
-      <c r="O17" s="30" t="n"/>
-      <c r="P17" s="30" t="n"/>
-      <c r="Q17" s="30" t="n"/>
-      <c r="R17" s="30" t="n"/>
+      <c r="G17" s="31" t="n"/>
+      <c r="H17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="33" t="n"/>
+      <c r="J17" s="32" t="n"/>
+      <c r="K17" s="32" t="n"/>
+      <c r="L17" s="32" t="n"/>
+      <c r="M17" s="32" t="n"/>
+      <c r="N17" s="32" t="n"/>
+      <c r="O17" s="32" t="n"/>
+      <c r="P17" s="32" t="n"/>
+      <c r="Q17" s="32" t="n"/>
+      <c r="R17" s="32" t="n"/>
       <c r="S17" s="11" t="n"/>
       <c r="T17" s="11" t="n"/>
       <c r="U17" s="11" t="n"/>
@@ -4245,9 +4612,7 @@
       <c r="AA17" s="11" t="n"/>
       <c r="AB17" s="11" t="n"/>
       <c r="AC17" s="11" t="n"/>
-      <c r="AD17" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="11" t="n"/>
       <c r="AE17" s="11" t="n"/>
       <c r="AF17" s="11" t="n"/>
       <c r="AG17" s="11" t="n"/>
@@ -4276,25 +4641,31 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F18" s="11" t="n"/>
-      <c r="G18" s="30" t="n"/>
-      <c r="H18" s="30" t="n"/>
-      <c r="I18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="30" t="n"/>
-      <c r="K18" s="30" t="n"/>
-      <c r="L18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="30" t="n"/>
-      <c r="N18" s="30" t="n"/>
-      <c r="O18" s="30" t="n"/>
-      <c r="P18" s="30" t="n"/>
-      <c r="Q18" s="30" t="n"/>
-      <c r="R18" s="30" t="n"/>
+      <c r="F18" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32" t="n"/>
+      <c r="H18" s="32" t="n"/>
+      <c r="I18" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="32" t="n"/>
+      <c r="K18" s="32" t="n"/>
+      <c r="L18" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="32" t="n"/>
+      <c r="N18" s="32" t="n"/>
+      <c r="O18" s="32" t="n"/>
+      <c r="P18" s="32" t="n"/>
+      <c r="Q18" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="32" t="n"/>
       <c r="S18" s="11" t="n"/>
-      <c r="T18" s="11" t="n"/>
+      <c r="T18" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="U18" s="11" t="n"/>
       <c r="V18" s="11" t="n"/>
       <c r="W18" s="11" t="n"/>
@@ -4305,9 +4676,7 @@
       <c r="AB18" s="11" t="n"/>
       <c r="AC18" s="11" t="n"/>
       <c r="AD18" s="11" t="n"/>
-      <c r="AE18" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE18" s="11" t="n"/>
       <c r="AF18" s="11" t="n"/>
       <c r="AG18" s="11" t="n"/>
     </row>
@@ -4335,25 +4704,25 @@
           <t>技术</t>
         </is>
       </c>
-      <c r="F19" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" s="29" t="n"/>
-      <c r="H19" s="30" t="n"/>
-      <c r="I19" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="30" t="n"/>
-      <c r="K19" s="30" t="n"/>
-      <c r="L19" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="30" t="n"/>
-      <c r="N19" s="30" t="n"/>
-      <c r="O19" s="30" t="n"/>
-      <c r="P19" s="30" t="n"/>
-      <c r="Q19" s="30" t="n"/>
-      <c r="R19" s="30" t="n"/>
+      <c r="F19" s="11" t="n"/>
+      <c r="G19" s="31" t="n"/>
+      <c r="H19" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="32" t="n"/>
+      <c r="K19" s="32" t="n"/>
+      <c r="L19" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="32" t="n"/>
+      <c r="N19" s="32" t="n"/>
+      <c r="O19" s="32" t="n"/>
+      <c r="P19" s="32" t="n"/>
+      <c r="Q19" s="32" t="n"/>
+      <c r="R19" s="32" t="n"/>
       <c r="S19" s="11" t="n"/>
       <c r="T19" s="11" t="n"/>
       <c r="U19" s="11" t="n"/>
@@ -4364,10 +4733,10 @@
       <c r="Z19" s="11" t="n"/>
       <c r="AA19" s="11" t="n"/>
       <c r="AB19" s="11" t="n"/>
-      <c r="AC19" s="11" t="n"/>
-      <c r="AD19" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="11" t="n"/>
       <c r="AE19" s="11" t="n"/>
       <c r="AF19" s="11" t="n"/>
       <c r="AG19" s="11" t="n"/>
@@ -4397,32 +4766,44 @@
         </is>
       </c>
       <c r="F20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="29" t="n"/>
-      <c r="H20" s="30" t="n"/>
-      <c r="I20" s="31" t="n"/>
-      <c r="J20" s="30" t="n"/>
-      <c r="K20" s="30" t="n"/>
-      <c r="L20" s="30" t="n"/>
-      <c r="M20" s="30" t="n"/>
-      <c r="N20" s="30" t="n"/>
-      <c r="O20" s="30" t="n"/>
-      <c r="P20" s="30" t="n"/>
-      <c r="Q20" s="30" t="n"/>
-      <c r="R20" s="30" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="31" t="n"/>
+      <c r="H20" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="32" t="n"/>
+      <c r="K20" s="32" t="n"/>
+      <c r="L20" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="32" t="n"/>
+      <c r="N20" s="32" t="n"/>
+      <c r="O20" s="32" t="n"/>
+      <c r="P20" s="32" t="n"/>
+      <c r="Q20" s="32" t="n"/>
+      <c r="R20" s="32" t="n"/>
       <c r="S20" s="11" t="n"/>
       <c r="T20" s="11" t="n"/>
       <c r="U20" s="11" t="n"/>
       <c r="V20" s="11" t="n"/>
       <c r="W20" s="11" t="n"/>
       <c r="X20" s="11" t="n"/>
-      <c r="Y20" s="11" t="n"/>
+      <c r="Y20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="Z20" s="11" t="n"/>
       <c r="AA20" s="11" t="n"/>
-      <c r="AB20" s="11" t="n"/>
+      <c r="AB20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AC20" s="11" t="n"/>
-      <c r="AD20" s="11" t="n"/>
+      <c r="AD20" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AE20" s="11" t="n"/>
       <c r="AF20" s="11" t="n"/>
       <c r="AG20" s="11" t="n"/>
@@ -4452,28 +4833,32 @@
         </is>
       </c>
       <c r="F21" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" s="30" t="n"/>
-      <c r="H21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="30" t="n"/>
-      <c r="K21" s="30" t="n"/>
-      <c r="L21" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" s="30" t="n"/>
-      <c r="N21" s="30" t="n"/>
-      <c r="O21" s="30" t="n"/>
-      <c r="P21" s="30" t="n"/>
-      <c r="Q21" s="30" t="n"/>
-      <c r="R21" s="30" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="32" t="n"/>
+      <c r="H21" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="32" t="n"/>
+      <c r="K21" s="32" t="n"/>
+      <c r="L21" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" s="32" t="n"/>
+      <c r="N21" s="32" t="n"/>
+      <c r="O21" s="32" t="n"/>
+      <c r="P21" s="32" t="n"/>
+      <c r="Q21" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="32" t="n"/>
       <c r="S21" s="11" t="n"/>
-      <c r="T21" s="11" t="n"/>
+      <c r="T21" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="U21" s="11" t="n"/>
       <c r="V21" s="11" t="n"/>
       <c r="W21" s="11" t="n"/>
@@ -4515,20 +4900,20 @@
         </is>
       </c>
       <c r="F22" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" s="29" t="n"/>
-      <c r="H22" s="30" t="n"/>
-      <c r="I22" s="31" t="n"/>
-      <c r="J22" s="30" t="n"/>
-      <c r="K22" s="30" t="n"/>
-      <c r="L22" s="30" t="n"/>
-      <c r="M22" s="30" t="n"/>
-      <c r="N22" s="30" t="n"/>
-      <c r="O22" s="30" t="n"/>
-      <c r="P22" s="30" t="n"/>
-      <c r="Q22" s="30" t="n"/>
-      <c r="R22" s="30" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="31" t="n"/>
+      <c r="H22" s="32" t="n"/>
+      <c r="I22" s="33" t="n"/>
+      <c r="J22" s="32" t="n"/>
+      <c r="K22" s="32" t="n"/>
+      <c r="L22" s="32" t="n"/>
+      <c r="M22" s="32" t="n"/>
+      <c r="N22" s="32" t="n"/>
+      <c r="O22" s="32" t="n"/>
+      <c r="P22" s="32" t="n"/>
+      <c r="Q22" s="32" t="n"/>
+      <c r="R22" s="32" t="n"/>
       <c r="S22" s="11" t="n"/>
       <c r="T22" s="11" t="n"/>
       <c r="U22" s="11" t="n"/>
@@ -4564,36 +4949,36 @@
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="8.625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="18.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.12962962962963" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8.62962962962963" customWidth="1" style="3" min="2" max="2"/>
+    <col width="18.6296296296296" customWidth="1" style="3" min="3" max="3"/>
     <col width="9.75" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.875" customWidth="1" style="3" min="5" max="5"/>
+    <col width="7.87962962962963" customWidth="1" style="3" min="5" max="5"/>
     <col width="10.5" customWidth="1" style="3" min="6" max="6"/>
     <col width="11.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.125" customWidth="1" style="3" min="8" max="8"/>
-    <col width="8.875" customWidth="1" style="3" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="8" max="8"/>
+    <col width="8.87962962962963" customWidth="1" style="3" min="9" max="9"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="10" max="10"/>
     <col width="13.5" customWidth="1" style="3" min="11" max="12"/>
     <col width="11.25" customWidth="1" style="3" min="13" max="13"/>
-    <col width="12.625" customWidth="1" style="3" min="14" max="14"/>
-    <col width="13.625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="12.6296296296296" customWidth="1" style="3" min="14" max="14"/>
+    <col width="13.6296296296296" customWidth="1" style="3" min="15" max="15"/>
     <col width="12.25" customWidth="1" style="3" min="16" max="16"/>
-    <col width="9.125" customWidth="1" style="3" min="17" max="17"/>
+    <col width="9.12962962962963" customWidth="1" style="3" min="17" max="17"/>
     <col width="13.25" customWidth="1" style="3" min="18" max="18"/>
     <col width="8.75" customWidth="1" style="3" min="19" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.1" customFormat="1" customHeight="1" s="1">
+    <row r="1" ht="65" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>2020年
-第13周</t>
+4月</t>
         </is>
       </c>
       <c r="B1" s="4" t="inlineStr">
@@ -4707,18 +5092,18 @@
         </is>
       </c>
       <c r="F2" s="11" t="n"/>
-      <c r="G2" s="30" t="n"/>
-      <c r="H2" s="30" t="n"/>
-      <c r="I2" s="30" t="n"/>
-      <c r="J2" s="30" t="n"/>
-      <c r="K2" s="30" t="n"/>
-      <c r="L2" s="30" t="n"/>
-      <c r="M2" s="30" t="n"/>
-      <c r="N2" s="30" t="n"/>
-      <c r="O2" s="30" t="n"/>
-      <c r="P2" s="30" t="n"/>
-      <c r="Q2" s="30" t="n"/>
-      <c r="R2" s="30" t="n"/>
+      <c r="G2" s="32" t="n"/>
+      <c r="H2" s="32" t="n"/>
+      <c r="I2" s="32" t="n"/>
+      <c r="J2" s="32" t="n"/>
+      <c r="K2" s="32" t="n"/>
+      <c r="L2" s="32" t="n"/>
+      <c r="M2" s="32" t="n"/>
+      <c r="N2" s="32" t="n"/>
+      <c r="O2" s="32" t="n"/>
+      <c r="P2" s="32" t="n"/>
+      <c r="Q2" s="32" t="n"/>
+      <c r="R2" s="32" t="n"/>
     </row>
     <row r="3" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A3" s="6" t="n">
@@ -4745,18 +5130,18 @@
         </is>
       </c>
       <c r="F3" s="11" t="n"/>
-      <c r="G3" s="30" t="n"/>
-      <c r="H3" s="30" t="n"/>
-      <c r="I3" s="31" t="n"/>
-      <c r="J3" s="30" t="n"/>
-      <c r="K3" s="30" t="n"/>
-      <c r="L3" s="30" t="n"/>
-      <c r="M3" s="30" t="n"/>
-      <c r="N3" s="30" t="n"/>
-      <c r="O3" s="30" t="n"/>
-      <c r="P3" s="30" t="n"/>
-      <c r="Q3" s="30" t="n"/>
-      <c r="R3" s="30" t="n"/>
+      <c r="G3" s="32" t="n"/>
+      <c r="H3" s="32" t="n"/>
+      <c r="I3" s="33" t="n"/>
+      <c r="J3" s="32" t="n"/>
+      <c r="K3" s="32" t="n"/>
+      <c r="L3" s="32" t="n"/>
+      <c r="M3" s="32" t="n"/>
+      <c r="N3" s="32" t="n"/>
+      <c r="O3" s="32" t="n"/>
+      <c r="P3" s="32" t="n"/>
+      <c r="Q3" s="32" t="n"/>
+      <c r="R3" s="32" t="n"/>
     </row>
     <row r="4" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A4" s="6" t="n">
@@ -4783,18 +5168,18 @@
         </is>
       </c>
       <c r="F4" s="11" t="n"/>
-      <c r="G4" s="29" t="n"/>
-      <c r="H4" s="30" t="n"/>
-      <c r="I4" s="31" t="n"/>
-      <c r="J4" s="30" t="n"/>
-      <c r="K4" s="30" t="n"/>
-      <c r="L4" s="30" t="n"/>
-      <c r="M4" s="30" t="n"/>
-      <c r="N4" s="30" t="n"/>
-      <c r="O4" s="30" t="n"/>
-      <c r="P4" s="30" t="n"/>
-      <c r="Q4" s="30" t="n"/>
-      <c r="R4" s="30" t="n"/>
+      <c r="G4" s="31" t="n"/>
+      <c r="H4" s="32" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="32" t="n"/>
+      <c r="K4" s="32" t="n"/>
+      <c r="L4" s="32" t="n"/>
+      <c r="M4" s="32" t="n"/>
+      <c r="N4" s="32" t="n"/>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="32" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="32" t="n"/>
     </row>
     <row r="5" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A5" s="6" t="n">
@@ -4821,18 +5206,18 @@
         </is>
       </c>
       <c r="F5" s="11" t="n"/>
-      <c r="G5" s="30" t="n"/>
-      <c r="H5" s="30" t="n"/>
-      <c r="I5" s="30" t="n"/>
-      <c r="J5" s="30" t="n"/>
-      <c r="K5" s="30" t="n"/>
-      <c r="L5" s="30" t="n"/>
-      <c r="M5" s="30" t="n"/>
-      <c r="N5" s="30" t="n"/>
-      <c r="O5" s="30" t="n"/>
-      <c r="P5" s="30" t="n"/>
-      <c r="Q5" s="30" t="n"/>
-      <c r="R5" s="30" t="n"/>
+      <c r="G5" s="32" t="n"/>
+      <c r="H5" s="32" t="n"/>
+      <c r="I5" s="32" t="n"/>
+      <c r="J5" s="32" t="n"/>
+      <c r="K5" s="32" t="n"/>
+      <c r="L5" s="32" t="n"/>
+      <c r="M5" s="32" t="n"/>
+      <c r="N5" s="32" t="n"/>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="32" t="n"/>
+      <c r="Q5" s="32" t="n"/>
+      <c r="R5" s="32" t="n"/>
     </row>
     <row r="6" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A6" s="6" t="n">
@@ -4859,18 +5244,18 @@
         </is>
       </c>
       <c r="F6" s="11" t="n"/>
-      <c r="G6" s="29" t="n"/>
-      <c r="H6" s="30" t="n"/>
-      <c r="I6" s="31" t="n"/>
-      <c r="J6" s="30" t="n"/>
-      <c r="K6" s="30" t="n"/>
-      <c r="L6" s="30" t="n"/>
-      <c r="M6" s="30" t="n"/>
-      <c r="N6" s="30" t="n"/>
-      <c r="O6" s="30" t="n"/>
-      <c r="P6" s="30" t="n"/>
-      <c r="Q6" s="30" t="n"/>
-      <c r="R6" s="30" t="n"/>
+      <c r="G6" s="31" t="n"/>
+      <c r="H6" s="32" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="32" t="n"/>
+      <c r="K6" s="32" t="n"/>
+      <c r="L6" s="32" t="n"/>
+      <c r="M6" s="32" t="n"/>
+      <c r="N6" s="32" t="n"/>
+      <c r="O6" s="32" t="n"/>
+      <c r="P6" s="32" t="n"/>
+      <c r="Q6" s="32" t="n"/>
+      <c r="R6" s="32" t="n"/>
     </row>
     <row r="7" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A7" s="6" t="n">
@@ -4897,18 +5282,18 @@
         </is>
       </c>
       <c r="F7" s="11" t="n"/>
-      <c r="G7" s="29" t="n"/>
-      <c r="H7" s="30" t="n"/>
-      <c r="I7" s="31" t="n"/>
-      <c r="J7" s="30" t="n"/>
-      <c r="K7" s="30" t="n"/>
-      <c r="L7" s="30" t="n"/>
-      <c r="M7" s="30" t="n"/>
-      <c r="N7" s="30" t="n"/>
-      <c r="O7" s="30" t="n"/>
-      <c r="P7" s="30" t="n"/>
-      <c r="Q7" s="30" t="n"/>
-      <c r="R7" s="30" t="n"/>
+      <c r="G7" s="31" t="n"/>
+      <c r="H7" s="32" t="n"/>
+      <c r="I7" s="33" t="n"/>
+      <c r="J7" s="32" t="n"/>
+      <c r="K7" s="32" t="n"/>
+      <c r="L7" s="32" t="n"/>
+      <c r="M7" s="32" t="n"/>
+      <c r="N7" s="32" t="n"/>
+      <c r="O7" s="32" t="n"/>
+      <c r="P7" s="32" t="n"/>
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="32" t="n"/>
     </row>
     <row r="8" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A8" s="6" t="n">
@@ -4935,18 +5320,18 @@
         </is>
       </c>
       <c r="F8" s="11" t="n"/>
-      <c r="G8" s="30" t="n"/>
-      <c r="H8" s="30" t="n"/>
-      <c r="I8" s="31" t="n"/>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="30" t="n"/>
-      <c r="L8" s="30" t="n"/>
-      <c r="M8" s="30" t="n"/>
-      <c r="N8" s="30" t="n"/>
-      <c r="O8" s="30" t="n"/>
-      <c r="P8" s="30" t="n"/>
-      <c r="Q8" s="30" t="n"/>
-      <c r="R8" s="30" t="n"/>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="32" t="n"/>
+      <c r="I8" s="33" t="n"/>
+      <c r="J8" s="32" t="n"/>
+      <c r="K8" s="32" t="n"/>
+      <c r="L8" s="32" t="n"/>
+      <c r="M8" s="32" t="n"/>
+      <c r="N8" s="32" t="n"/>
+      <c r="O8" s="32" t="n"/>
+      <c r="P8" s="32" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="32" t="n"/>
     </row>
     <row r="9" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A9" s="6" t="n">
@@ -4973,18 +5358,18 @@
         </is>
       </c>
       <c r="F9" s="11" t="n"/>
-      <c r="G9" s="30" t="n"/>
-      <c r="H9" s="30" t="n"/>
-      <c r="I9" s="30" t="n"/>
-      <c r="J9" s="30" t="n"/>
-      <c r="K9" s="30" t="n"/>
-      <c r="L9" s="30" t="n"/>
-      <c r="M9" s="30" t="n"/>
-      <c r="N9" s="30" t="n"/>
-      <c r="O9" s="30" t="n"/>
-      <c r="P9" s="30" t="n"/>
-      <c r="Q9" s="30" t="n"/>
-      <c r="R9" s="30" t="n"/>
+      <c r="G9" s="32" t="n"/>
+      <c r="H9" s="32" t="n"/>
+      <c r="I9" s="32" t="n"/>
+      <c r="J9" s="32" t="n"/>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="32" t="n"/>
+      <c r="M9" s="32" t="n"/>
+      <c r="N9" s="32" t="n"/>
+      <c r="O9" s="32" t="n"/>
+      <c r="P9" s="32" t="n"/>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="32" t="n"/>
     </row>
     <row r="10" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A10" s="6" t="n">
@@ -5011,18 +5396,18 @@
         </is>
       </c>
       <c r="F10" s="11" t="n"/>
-      <c r="G10" s="29" t="n"/>
-      <c r="H10" s="30" t="n"/>
-      <c r="I10" s="31" t="n"/>
-      <c r="J10" s="30" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="30" t="n"/>
-      <c r="O10" s="30" t="n"/>
-      <c r="P10" s="30" t="n"/>
-      <c r="Q10" s="30" t="n"/>
-      <c r="R10" s="30" t="n"/>
+      <c r="G10" s="31" t="n"/>
+      <c r="H10" s="32" t="n"/>
+      <c r="I10" s="33" t="n"/>
+      <c r="J10" s="32" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="32" t="n"/>
+      <c r="M10" s="32" t="n"/>
+      <c r="N10" s="32" t="n"/>
+      <c r="O10" s="32" t="n"/>
+      <c r="P10" s="32" t="n"/>
+      <c r="Q10" s="32" t="n"/>
+      <c r="R10" s="32" t="n"/>
     </row>
     <row r="11" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A11" s="6" t="n">
@@ -5050,17 +5435,17 @@
       </c>
       <c r="F11" s="11" t="n"/>
       <c r="G11" s="11" t="n"/>
-      <c r="H11" s="30" t="n"/>
-      <c r="I11" s="31" t="n"/>
-      <c r="J11" s="30" t="n"/>
-      <c r="K11" s="30" t="n"/>
-      <c r="L11" s="30" t="n"/>
-      <c r="M11" s="30" t="n"/>
-      <c r="N11" s="30" t="n"/>
-      <c r="O11" s="30" t="n"/>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="30" t="n"/>
-      <c r="R11" s="30" t="n"/>
+      <c r="H11" s="32" t="n"/>
+      <c r="I11" s="33" t="n"/>
+      <c r="J11" s="32" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="32" t="n"/>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="32" t="n"/>
+      <c r="O11" s="32" t="n"/>
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="32" t="n"/>
     </row>
     <row r="12" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A12" s="6" t="n">
@@ -5087,18 +5472,18 @@
         </is>
       </c>
       <c r="F12" s="11" t="n"/>
-      <c r="G12" s="29" t="n"/>
-      <c r="H12" s="30" t="n"/>
-      <c r="I12" s="31" t="n"/>
-      <c r="J12" s="30" t="n"/>
-      <c r="K12" s="30" t="n"/>
-      <c r="L12" s="30" t="n"/>
-      <c r="M12" s="30" t="n"/>
-      <c r="N12" s="30" t="n"/>
-      <c r="O12" s="30" t="n"/>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="30" t="n"/>
-      <c r="R12" s="30" t="n"/>
+      <c r="G12" s="31" t="n"/>
+      <c r="H12" s="32" t="n"/>
+      <c r="I12" s="33" t="n"/>
+      <c r="J12" s="32" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="32" t="n"/>
+      <c r="M12" s="32" t="n"/>
+      <c r="N12" s="32" t="n"/>
+      <c r="O12" s="32" t="n"/>
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="32" t="n"/>
+      <c r="R12" s="32" t="n"/>
     </row>
     <row r="13" ht="30" customFormat="1" customHeight="1" s="23">
       <c r="A13" s="6" t="n">
@@ -5125,18 +5510,18 @@
         </is>
       </c>
       <c r="F13" s="11" t="n"/>
-      <c r="G13" s="29" t="n"/>
-      <c r="H13" s="30" t="n"/>
-      <c r="I13" s="31" t="n"/>
-      <c r="J13" s="30" t="n"/>
-      <c r="K13" s="30" t="n"/>
-      <c r="L13" s="30" t="n"/>
-      <c r="M13" s="30" t="n"/>
-      <c r="N13" s="30" t="n"/>
-      <c r="O13" s="30" t="n"/>
-      <c r="P13" s="30" t="n"/>
-      <c r="Q13" s="30" t="n"/>
-      <c r="R13" s="30" t="n"/>
+      <c r="G13" s="31" t="n"/>
+      <c r="H13" s="32" t="n"/>
+      <c r="I13" s="33" t="n"/>
+      <c r="J13" s="32" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="32" t="n"/>
+      <c r="M13" s="32" t="n"/>
+      <c r="N13" s="32" t="n"/>
+      <c r="O13" s="32" t="n"/>
+      <c r="P13" s="32" t="n"/>
+      <c r="Q13" s="32" t="n"/>
+      <c r="R13" s="32" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
